--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H2">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>0.414841</v>
       </c>
       <c r="O2">
-        <v>0.05497238930810543</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="P2">
-        <v>0.05497238930810542</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="Q2">
-        <v>0.154868856961</v>
+        <v>0.1424891257455556</v>
       </c>
       <c r="R2">
-        <v>1.393819712649</v>
+        <v>1.28240213171</v>
       </c>
       <c r="S2">
-        <v>0.05497238930810543</v>
+        <v>0.03059328965493693</v>
       </c>
       <c r="T2">
-        <v>0.05497238930810542</v>
+        <v>0.03059328965493693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H3">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>2.090313</v>
       </c>
       <c r="O3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="P3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="Q3">
-        <v>0.780357739473</v>
+        <v>0.71797838667</v>
       </c>
       <c r="R3">
-        <v>7.023219655257001</v>
+        <v>6.461805480030001</v>
       </c>
       <c r="S3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
       <c r="T3">
-        <v>0.2769964878394223</v>
+        <v>0.1541543653555945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H4">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.680399333333333</v>
+        <v>3.682798</v>
       </c>
       <c r="N4">
-        <v>5.041198</v>
+        <v>11.048394</v>
       </c>
       <c r="O4">
-        <v>0.6680311228524723</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="P4">
-        <v>0.6680311228524722</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="Q4">
-        <v>1.881985078558</v>
+        <v>3.794890095126667</v>
       </c>
       <c r="R4">
-        <v>16.937865707022</v>
+        <v>34.15401085614</v>
       </c>
       <c r="S4">
-        <v>0.6680311228524723</v>
+        <v>0.8147861900435764</v>
       </c>
       <c r="T4">
-        <v>0.6680311228524722</v>
+        <v>0.8147861900435764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.030436666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.09131</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.002107</v>
+      </c>
+      <c r="N5">
+        <v>0.006321</v>
+      </c>
+      <c r="O5">
+        <v>0.0004661549458921764</v>
+      </c>
+      <c r="P5">
+        <v>0.0004661549458921764</v>
+      </c>
+      <c r="Q5">
+        <v>0.002171130056666666</v>
+      </c>
+      <c r="R5">
+        <v>0.01954017051</v>
+      </c>
+      <c r="S5">
+        <v>0.0004661549458921764</v>
+      </c>
+      <c r="T5">
+        <v>0.0004661549458921764</v>
       </c>
     </row>
   </sheetData>
